--- a/outputs/tf/bert.xlsx
+++ b/outputs/tf/bert.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +26,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -59,38 +63,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -121,7 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -516,7 +544,7 @@
   </sheetPr>
   <dimension ref="A1:R210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -528,7 +556,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr"/>
+      <c r="A1" s="10" t="n"/>
       <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Layer Hierarchy</t>
@@ -576,7 +604,7 @@
       <c r="R1" s="11" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr"/>
+      <c r="A2" s="10" t="n"/>
       <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Layer</t>
@@ -10345,7 +10373,7 @@
       <formula>31254528</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
